--- a/data/gpt_examples/action/shots.xlsx
+++ b/data/gpt_examples/action/shots.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>user</t>
   </si>
@@ -19,7 +19,7 @@
     <t>assistant</t>
   </si>
   <si>
-    <t>Florian Wirtz's shot from Germany resulted in a Goal. This shot had an xG value of 0.15, which means that we estimate the chance of scoring from this situation as 15%. This was a high-quality chance, with a good probability of scoring. The shot was with the right foot. The shot was taken after a throw-in. It was taken from very close to the center of the pitch. It was taken from a moderate distance from the goal. It was taken with little or no pressure from opponents. There we multiple opponents blocking the path. The goalkeeper was very close to the goal. The shot was taken with no immediate pressure from any close opponent, with the nearest opponent far away. The shot was taken from a relatively good angle, allowing for a decent chance.
+    <t>Florian Wirtz's shot from Germany resulted in a goal! This shot had an xG value of 0.15, which means that we estimate the chance of scoring from this situation as 15%. This was a high-quality chance, with a good probability of scoring. The shot was with the right foot. The shot was taken after a throw-in. It was taken from very close to the center of the pitch. It was taken from a moderate distance from the goal. It was taken with little or no pressure from opponents. There we multiple opponents blocking the path. The goalkeeper was very close to the goal. The shot was taken with no immediate pressure from any close opponent, with the nearest opponent far away. The shot was taken from a relatively good angle, allowing for a decent chance.
 The contributions of the features to the xG of the shot, sorted by their magnitude from largest to smallest, are as follows:
 The most impactful feature is vertical distance to center, which had the maximum positive contribution because the shot was taken closer to the center of the pitch (less vertical distance).. This feature increased the xG of the shot. Another impactful feature is distance to nearest opponent, which had the maximum positive contribution because the shot was taken with no immediate pressure, as the nearest opponent was far away. This feature increased the xG of the shot. Another impactful feature is euclidean distance to goal, which had the maximum positive contribution because the shot was taken from a moderate distance to the goal. This feature increased the xG of the shot. Another impactful feature is shot after throw in, which had the maximum positive contribution because the shot was taken after a throw-in. This feature increased the xG of the shot.</t>
   </si>
@@ -27,12 +27,52 @@
     <t xml:space="preserve">What a strike from Wirtz! Turning a high quality (0.15 xG) chance into a stunning goal. He opened up a position for himself in a central position on the pitch, where he had the time and space to carefully place his shot. Despite multiple opponents between him and the goal, he executed expertly. Wirtz's clinical finishing turned a throw-in into a valuable goal for his team. </t>
   </si>
   <si>
-    <t>Pascal Groß's shot from Germany resulted in a No Goal. This shot had an xG value of 0.02, which means that we estimate the chance of scoring from this situation as 2%. This was a slim chance of scoring. The shot was a header. The shot was taken after a corner. It was taken reasonably centrally. It was taken from long range, far from the goal. It was taken with little or no pressure from opponents. There we multiple opponents blocking the path. The goalkeeper was very close to the goal. The shot was taken with no immediate pressure from any close opponent, with the nearest opponent far away. The shot was taken from a broad angle towards goalkeeper being on left, making it difficult to score.
+    <t>Pascal Groß's shot from Germany didn't result in a goal. This shot had an xG value of 0.02, which means that we estimate the chance of scoring from this situation as 2%. This was a slim chance of scoring. The shot was a header. The shot was taken after a corner. It was taken reasonably centrally. It was taken from long range, far from the goal. It was taken with little or no pressure from opponents. There we multiple opponents blocking the path. The goalkeeper was very close to the goal. The shot was taken with no immediate pressure from any close opponent, with the nearest opponent far away. The shot was taken from a broad angle towards goalkeeper being on left, making it difficult to score.
 The contributions of the features to the xG of the shot, sorted by their magnitude from largest to smallest, are as follows:
 The most impactful feature is number of opponents in triangle formed by shot location and goalposts, which had the maximum negative contribution because the shot was heavily contested, with multiple opponents blocking the path.. This feature reduced the xG of the shot. Another impactful feature is distance to nearest opponent, which had the maximum positive contribution because the shot was taken with no immediate pressure, as the nearest opponent was far away. This feature increased the xG of the shot. Another impactful feature is euclidean distance to goal, which had the maximum negative contribution because the shot was taken from a long range, far from the goal. This feature reduced the xG of the shot. Another impactful feature is vertical distance to center, which had the maximum negative contribution because the shot was taken from an intermediate vertical distance. This feature reduced the xG of the shot.</t>
   </si>
   <si>
     <t>It was always going to be a very very slim chance with so many opposing players behind the ball and the xG  was just 0.02. When large numbers of defenders are blocking the way, as they were in this case, then a header might be a good option for taking the ball over the top of the defenders. But, despite the lack of immediate pressure on him, the distance and the wide angle from which Groß was attempting this header made it very unlikely to trouble the keeper. Sometimes the best option is to get that ball back into play rather than taking a low-percentage header from that distance!</t>
+  </si>
+  <si>
+    <t>Millie Bright's shot from Chelsea FCW didn't result in a goal. This shot had an xG value of 0.01, which means that we estimate the chance of scoring from this situation as 1%. This was a slim chance of scoring. The shot was with the right foot. The shot was taken during open play. It was taken quite a long way from the centre of the pitch. It was taken from long range, far from the goal. It was taken with little or no pressure from opponents. There we multiple opponents blocking the path. The goalkeeper was very close to the goal. The shot was taken with no immediate pressure from any close opponent, with the nearest opponent far away. The shot was taken from a relatively good angle, allowing for a decent chance.
+The contributions of the features to the xG of the shot, sorted by their magnitude from largest to smallest, are as follows:
+The most impactful feature is euclidean distance to goal, which had the maximum negative contribution because the shot was taken from a long range, far from the goal.. This feature reduced the xG of the shot. Another impactful feature is vertical distance to center, which had the maximum negative contribution because the shot was taken far from the center, closer to the touchline. This feature reduced the xG of the shot. Another impactful feature is distance to nearest opponent, which had the maximum positive contribution because the shot was taken with no immediate pressure, as the nearest opponent was far away. This feature increased the xG of the shot. Another impactful feature is distance to goal of the goalkeeper, which had the maximum negative contribution because the goalkeeper was very close to the goal. This feature reduced the xG of the shot.</t>
+  </si>
+  <si>
+    <t>With a mere xG of 0.01 Bright’s long distance didn't trouble the keeper. The sheer distance from goal was the biggest killer; it is a long way out to try to score from. While she had space to get the shot away, that lack of pressure and time meant she could've opted for a pass or a better buildup play instead of firing from range. Bright needs to be more selective about her shots; this was the type of low percentage opportunity that should be avoided.</t>
+  </si>
+  <si>
+    <t>Fara Williams's shot from Reading WFC didn't result in a goal. This shot had an xG value of 0.04, which means that we estimate the chance of scoring from this situation as 4%. This was a low chance of scoring. The shot was with the left foot. The shot was taken during open play. It was taken quite a long way from the centre of the pitch. It was taken from a moderate distance from the goal. It was taken with little or no pressure from opponents. There were some opposition players blocking the path, but there was spac for a well-placed shot. The goalkeeper was at a moderate distance from the goal. The shot was taken with no immediate pressure from any close opponent, with the nearest opponent far away. The shot was taken from a broad angle towards goalkeeper being on left, making it difficult to score.
+The contributions of the features to the xG of the shot, sorted by their magnitude from largest to smallest, are as follows:
+The most impactful feature is vertical distance to center, which had the maximum negative contribution because the shot was taken far from the center, closer to the touchline.. This feature reduced the xG of the shot. Another impactful feature is euclidean distance to goal, which had the maximum negative contribution because the shot was taken from a moderate distance to the goal. This feature reduced the xG of the shot. Another impactful feature is distance to goal of the goalkeeper, which had the maximum negative contribution because the goalkeeper was at a moderate distance from the goal. This feature reduced the xG of the shot. Another impactful feature is shot during regular play, which had the maximum negative contribution because the shot was taken during regular play. This feature reduced the xG of the shot.</t>
+  </si>
+  <si>
+    <t>A low-percentage chance (0.04 xG) for Williams that didn't find the back of the net. She was too far wide, far from the center of the pitch, to have a good chance of scoring. With the goalkeeper in a fairly good position, the angle was very tight. The defenders did fail to pressure the shot, which gave her more time to shoot. If had been possible to cut inside, Fara might have found a better angle on goal.</t>
+  </si>
+  <si>
+    <t>Gemma Suzanne Davison's shot from Reading WFC didn't result in a goal. This shot had an xG value of 0.09, which means that we estimate the chance of scoring from this situation as 9%. This was a decent chance. The shot was with the left foot. The shot was taken during open play. It was taken from very close to the center of the pitch. It was taken from a moderate distance from the goal. It was taken with moderate pressure, with one opponent within 3 meters. There we multiple opponents blocking the path. The goalkeeper was at a moderate distance from the goal. The shot was taken with moderate pressure from an opponent nearby. The shot was taken from a relatively good angle, allowing for a decent chance.
+The contributions of the features to the xG of the shot, sorted by their magnitude from largest to smallest, are as follows:
+The most impactful feature is vertical distance to center, which had the maximum positive contribution because the shot was taken closer to the center of the pitch (less vertical distance).. This feature increased the xG of the shot. Another impactful feature is number of opponents in triangle formed by shot location and goalposts, which had the maximum negative contribution because the shot was heavily contested, with multiple opponents blocking the path. This feature reduced the xG of the shot. Another impactful feature is euclidean distance to goal, which had the maximum positive contribution because the shot was taken from a moderate distance to the goal. This feature increased the xG of the shot. Another impactful feature is distance to goal of the goalkeeper, which had the maximum negative contribution because the goalkeeper was at a moderate distance from the goal. This feature reduced the xG of the shot.</t>
+  </si>
+  <si>
+    <t>A decent chance for Davison, a 0.09 xG effort, that unfortunately didn't find the back of the net. She got central and near to goal, but the number of opponents between Davison and the goal significantly hampered her chances. Add to that a well positioned keeper, and the shot wasn’t quite as good a chance as it could have been. A good chance, but Davison might consider how she could improve her shot timing to create a clear view of goal.</t>
+  </si>
+  <si>
+    <t>Brianna Visalli's shot from West Ham United LFC didn't result in a goal. This shot had an xG value of 0.25, which means that we estimate the chance of scoring from this situation as 25%. This was a high-quality chance, with a good probability of scoring. The shot was with the right foot. The shot was taken after a throw-in. It was taken quite a long way from the centre of the pitch. It was taken from a moderate distance from the goal. It was taken with little or no pressure from opponents. There were some opposition players blocking the path, but there was spac for a well-placed shot. The goalkeeper was positioned far from the goal. The shot was taken with no immediate pressure from any close opponent, with the nearest opponent far away. The shot was taken from a broad angle towards the goalkeeper being on right.
+The contributions of the features to the xG of the shot, sorted by their magnitude from largest to smallest, are as follows:
+The most impactful feature is distance to goal of the goalkeeper, which had the maximum positive contribution because the goalkeeper was positioned far from the goal.. This feature increased the xG of the shot. Another impactful feature is euclidean distance to goal, which had the maximum positive contribution because the shot was taken from a moderate distance to the goal. This feature increased the xG of the shot. Another impactful feature is shot after throw in, which had the maximum negative contribution because the shot was taken after a throw-in. This feature reduced the xG of the shot. Another impactful feature is number of opponents in triangle formed by shot location and goalposts, which had the maximum positive contribution because the shot was taken with some opposition blocking the path. This feature increased the xG of the shot.</t>
+  </si>
+  <si>
+    <t>Visalli had a great chance there, a 0.25 xG opportunity, meaning that one in four shots like this one are converted. The keeper being well off her line and the moderate distance to goal increased the danger. However, the fact that it was taken from a wide angle and coming after a throw in - slightly reduced the chance of a good goal scoring chance. Creating chances like this one is a good sign and the goals will come.</t>
+  </si>
+  <si>
+    <t>Seko Fofana's shot from Côte d'Ivoire was a goal! This shot had an xG value of 0.05, which means that we estimate the chance of scoring from this situation as 5%. This was a low chance of scoring. The shot was with the right foot. The shot was taken from a set-piece. It was taken reasonably centrally. It was taken from a moderate distance from the goal. It was taken under heavy pressure, with several opponents within 3 meters. There we multiple opponents blocking the path. The goalkeeper was very close to the goal. The shot was taken with moderate pressure from an opponent nearby. The shot was taken from a relatively good angle, allowing for a decent chance.
+The contributions of the features to the xG of the shot, sorted by their magnitude from largest to smallest, are as follows:
+The most impactful feature was that the shot came after a set-piece. This feature increased the xG of the shot. Another impactful feature is euclidean distance to goal, which had the maximum positive contribution because the shot was taken from a moderate distance to the goal. This feature increased the xG of the shot. Another impactful feature is distance to goal of the goalkeeper, which had the maximum negative contribution because the goalkeeper was very close to the goal. This feature reduced the xG of the shot. Another impactful feature is vertical distance to center, which had the maximum positive contribution because the shot was taken from an intermediate vertical distance. This feature increased the xG of the shot.</t>
+  </si>
+  <si>
+    <t>Against the odds (0.05 xG), Fofana scrambled the ball into the goal!. The moderate distance was helpful, but the goalkeeper was well positioned, significantly reducing the probability of scoring. However, the central positioning combined with the shot coming after a set piece gave him a better chance. A stunning finish under immense pressure from Fofana – a moment of pure magic!</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1274,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="67.7109" style="1" customWidth="1"/>
+    <col min="1" max="1" width="67.6719" style="1" customWidth="1"/>
     <col min="2" max="2" width="87.1719" style="1" customWidth="1"/>
     <col min="3" max="20" width="8.67188" style="1" customWidth="1"/>
     <col min="21" max="16384" width="14.5" style="1" customWidth="1"/>
@@ -1318,9 +1358,13 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+    <row r="4" ht="318" customHeight="1">
+      <c r="A4" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="6">
+        <v>7</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1340,9 +1384,13 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+    <row r="5" ht="260.5" customHeight="1">
+      <c r="A5" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="6">
+        <v>9</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1362,9 +1410,13 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+    <row r="6" ht="257.75" customHeight="1">
+      <c r="A6" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="6">
+        <v>11</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1384,9 +1436,13 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+    <row r="7" ht="329.5" customHeight="1">
+      <c r="A7" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="6">
+        <v>13</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1406,9 +1462,13 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+    <row r="8" ht="331.05" customHeight="1">
+      <c r="A8" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="6">
+        <v>15</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
